--- a/config_12.28/box_exchange_server.xlsx
+++ b/config_12.28/box_exchange_server.xlsx
@@ -5807,10 +5807,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3000,3100</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5821,6 +5817,9 @@
   <si>
     <t>4001,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞礼包</t>
   </si>
 </sst>
 </file>
@@ -6450,7 +6449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9427,13 +9426,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C105" s="38">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="D105" s="38">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="E105" s="14">
         <v>91</v>
@@ -9450,13 +9449,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C106" s="38">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="D106" s="38">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="E106" s="14">
         <v>92</v>
@@ -9473,13 +9472,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C107" s="38">
-        <v>1636416000</v>
+        <v>1640044800</v>
       </c>
       <c r="D107" s="38">
-        <v>1637596799</v>
+        <v>1640620799</v>
       </c>
       <c r="E107" s="14">
         <v>93</v>
@@ -30794,7 +30793,7 @@
         <v>823</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30808,7 +30807,7 @@
         <v>824</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30836,7 +30835,7 @@
         <v>766</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.28/box_exchange_server.xlsx
+++ b/config_12.28/box_exchange_server.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="830">
   <si>
     <t>id|</t>
   </si>
@@ -5745,10 +5745,6 @@
       </rPr>
       <t>,1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxjkh_024_jfphb_rank</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -6449,7 +6445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9426,7 +9422,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C105" s="38">
         <v>1640044800</v>
@@ -9449,7 +9445,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C106" s="38">
         <v>1640044800</v>
@@ -9472,7 +9468,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C107" s="38">
         <v>1640044800</v>
@@ -9564,7 +9560,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C111" s="60">
         <v>1635206400</v>
@@ -9601,7 +9597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C94"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10892,7 +10888,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10906,7 +10902,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10920,7 +10916,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10934,7 +10930,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -10948,7 +10944,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D96" s="38">
         <v>1</v>
@@ -30622,7 +30618,7 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E662" s="57" t="s">
         <v>811</v>
@@ -30790,10 +30786,10 @@
         <v>12145</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30804,10 +30800,10 @@
         <v>12146</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30818,10 +30814,10 @@
         <v>12147</v>
       </c>
       <c r="D676" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="E676" s="9" t="s">
         <v>825</v>
-      </c>
-      <c r="E676" s="9" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -30835,7 +30831,7 @@
         <v>766</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -32247,7 +32243,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32429,46 +32425,19 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39">
-        <v>107</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
+      <c r="A12" s="39"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39">
-        <v>108</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
+      <c r="A13" s="39"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39">
-        <v>109</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
+      <c r="A14" s="39"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -32696,7 +32665,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32707,7 +32676,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32718,7 +32687,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>
